--- a/media/eb_order/EB注文書.xlsx
+++ b/media/eb_order/EB注文書.xlsx
@@ -15,6 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="ITERATOR_END">Sheet1!$I$24</definedName>
+    <definedName name="ITERATOR_START">Sheet1!$C$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$35</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>注　文　書</t>
     <phoneticPr fontId="2"/>
@@ -53,37 +55,13 @@
     <t>委託業務責任者（甲）</t>
   </si>
   <si>
-    <t>花　東江</t>
-  </si>
-  <si>
-    <t>連絡窓口担当者（甲）</t>
-  </si>
-  <si>
-    <t>○○</t>
-  </si>
-  <si>
     <t>委託業務責任者（乙）</t>
   </si>
   <si>
     <t>連絡窓口担当者（乙）</t>
   </si>
   <si>
-    <t>○ ○○</t>
-  </si>
-  <si>
     <t>業務委託料金</t>
-  </si>
-  <si>
-    <t>月額基本料金：○円/月　　税金抜き</t>
-  </si>
-  <si>
-    <t>※基準時間：○○○○○○</t>
-  </si>
-  <si>
-    <t>超過単価：○○○○○○　</t>
-  </si>
-  <si>
-    <t>不足単価：○○○○○○　</t>
   </si>
   <si>
     <t>精算方式：変動基準時間方式とします。</t>
@@ -230,14 +208,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">〈契約条項〉
-１．本作業に関わる著作権は、甲に一切帰属するものとする。
-２．乙は、本作業にて知り得た知識・企業秘密・ノウハウその他の情報（本作業自体を含め）、一切乙以外の外部に漏洩しないものとする。
-３．顧客の都合によりこの注文書の業務が中断もしくは終了した場合は、その時点で、当該注文は解除され発注の効力を失う。
-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>注文番号：{$ORDER_NO$}</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -283,6 +253,53 @@
   </si>
   <si>
     <t>{$PUBLISH_DATE$}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{$MASTER$}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{$SUBCONTRACTOR_MASTER$}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{$SUBCONTRACTOR_MIDDLEMAN$}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>連絡窓口担当者（甲）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{$MIDDLEMAN$}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{$ITEM_NAME$}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月額基本料金：{$ITEM_COST$}円/月　　税金抜き</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※基準時間：{$ITEM_MIN_HOUR$} 〜 {$ITEM_MAX_HOUR$}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>超過単価：{$ITEM_PLUS_PER_HOUR$}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不足単価：{$ITEM_MINUS_PER_HOUR$}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〈契約条項〉
+１．本作業に関わる著作権は、甲に一切帰属するものとする。
+２．乙は、本作業にて知り得た知識・企業秘密・ノウハウその他の情報（本作業自体を含め）、一切乙以外の外部に漏洩しないものとする。
+３．顧客の都合によりこの注文書の業務が中断もしくは終了した場合は、その時点で、当該注文は解除され発注の効力を失う。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -382,7 +399,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -526,13 +543,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,12 +611,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -581,17 +641,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -906,30 +972,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G1" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G2" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -938,7 +1004,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>2</v>
@@ -946,22 +1012,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -978,8 +1044,8 @@
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G13" s="9" t="s">
-        <v>37</v>
+      <c r="G13" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -992,287 +1058,322 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12" t="s">
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13"/>
-    </row>
-    <row r="26" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12" t="s">
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="25"/>
+    </row>
+    <row r="31" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="13"/>
-    </row>
-    <row r="27" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12" t="s">
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="21"/>
-    </row>
-    <row r="31" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="21"/>
-    </row>
-    <row r="32" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="21"/>
-    </row>
-    <row r="33" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="21"/>
-    </row>
-    <row r="34" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17"/>
-    </row>
-    <row r="35" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="24">
+    <mergeCell ref="A35:I39"/>
     <mergeCell ref="C34:I34"/>
-    <mergeCell ref="A35:I35"/>
     <mergeCell ref="C29:I29"/>
     <mergeCell ref="C30:I30"/>
     <mergeCell ref="C31:I31"/>
@@ -1283,9 +1384,6 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C21:I21"/>
     <mergeCell ref="C17:I17"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
@@ -1295,13 +1393,9 @@
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
     <mergeCell ref="C27:I27"/>
     <mergeCell ref="C28:I28"/>
     <mergeCell ref="A20:B26"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/media/eb_order/EB注文書.xlsx
+++ b/media/eb_order/EB注文書.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26408"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YangWanjun/Documents/workspace/ebusiness/media/eb_order/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,9 +12,9 @@
   <definedNames>
     <definedName name="ITERATOR_END">Sheet1!$I$24</definedName>
     <definedName name="ITERATOR_START">Sheet1!$C$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$40</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -248,10 +243,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>{$START_DATE$} ～平成　{$END_DATE$}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>{$PUBLISH_DATE$}</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -300,6 +291,10 @@
 １．本作業に関わる著作権は、甲に一切帰属するものとする。
 ２．乙は、本作業にて知り得た知識・企業秘密・ノウハウその他の情報（本作業自体を含め）、一切乙以外の外部に漏洩しないものとする。
 ３．顧客の都合によりこの注文書の業務が中断もしくは終了した場合は、その時点で、当該注文は解除され発注の効力を失う。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{$START_DATE$} ～ {$END_DATE$}</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -307,7 +302,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,17 +618,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -647,33 +666,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -728,7 +723,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -763,7 +758,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -972,37 +967,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="G1" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18">
       <c r="G2" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="D3" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24">
+      <c r="D3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -1010,113 +1005,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18">
       <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18">
       <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18">
       <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="F9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18">
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickBot="1">
       <c r="A11" s="2"/>
       <c r="G11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18">
       <c r="A12" s="2"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18">
       <c r="G13" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="18.95" thickBot="1">
       <c r="A14" s="1"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:9" ht="39" customHeight="1">
+      <c r="A17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" ht="27" customHeight="1">
+      <c r="A18" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9" ht="27" customHeight="1">
+      <c r="A19" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="27"/>
+    </row>
+    <row r="20" spans="1:9" ht="21" customHeight="1">
+      <c r="A20" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="19"/>
-    </row>
-    <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -1125,11 +1120,11 @@
       <c r="H20" s="10"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
+    <row r="21" spans="1:9" ht="21" customHeight="1">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -1138,11 +1133,11 @@
       <c r="H21" s="10"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
+    <row r="22" spans="1:9" ht="21" customHeight="1">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -1151,11 +1146,11 @@
       <c r="H22" s="10"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
+    <row r="23" spans="1:9" ht="21" customHeight="1">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -1164,11 +1159,11 @@
       <c r="H23" s="10"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
+    <row r="24" spans="1:9" ht="21" customHeight="1">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -1177,9 +1172,9 @@
       <c r="H24" s="10"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
+    <row r="25" spans="1:9" ht="21" customHeight="1">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="9" t="s">
         <v>10</v>
       </c>
@@ -1190,9 +1185,9 @@
       <c r="H25" s="10"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
+    <row r="26" spans="1:9" ht="21" customHeight="1">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="9" t="s">
         <v>11</v>
       </c>
@@ -1203,183 +1198,191 @@
       <c r="H26" s="10"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A27" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
-    </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A28" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9" ht="21" customHeight="1">
+      <c r="A29" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="24" t="s">
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="1:9" ht="21" customHeight="1">
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="25"/>
-    </row>
-    <row r="31" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="24" t="s">
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="1:9" ht="21" customHeight="1">
+      <c r="A31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="25"/>
-    </row>
-    <row r="32" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="24" t="s">
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="1:9" ht="21" customHeight="1">
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25"/>
-    </row>
-    <row r="33" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="24" t="s">
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="1:9" ht="21" customHeight="1">
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="25"/>
-    </row>
-    <row r="34" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="22" t="s">
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="19"/>
+    </row>
+    <row r="34" spans="1:9" ht="21" customHeight="1" thickBot="1">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="23"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="15"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A35:I39"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="A29:B34"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="A20:B26"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
@@ -1391,14 +1394,17 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="A20:B26"/>
+    <mergeCell ref="A35:I40"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="A29:B34"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/media/eb_order/EB注文書.xlsx
+++ b/media/eb_order/EB注文書.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="630" yWindow="510" windowWidth="18015" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,22 +12,16 @@
   <definedNames>
     <definedName name="ITERATOR_END">Sheet1!$I$24</definedName>
     <definedName name="ITERATOR_START">Sheet1!$C$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$39</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>注　文　書</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>（乙）</t>
@@ -37,11 +31,9 @@
   </si>
   <si>
     <t>作成者</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>下記の通り注文致しますので、ご了承の上、折り返し注文請書をご送付下さい。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>作業期間</t>
@@ -50,161 +42,55 @@
     <t>委託業務責任者（甲）</t>
   </si>
   <si>
+    <t>連絡窓口担当者（甲）</t>
+  </si>
+  <si>
     <t>委託業務責任者（乙）</t>
   </si>
   <si>
     <t>連絡窓口担当者（乙）</t>
   </si>
   <si>
+    <t>納入物件</t>
+  </si>
+  <si>
+    <t>月別作業報告書</t>
+  </si>
+  <si>
+    <t>支払条件</t>
+  </si>
+  <si>
+    <t>作業報告書査収による毎月末締め、翌々月末日に現金振込</t>
+  </si>
+  <si>
+    <t>①   途中入退場の場合は日割計算する。</t>
+  </si>
+  <si>
+    <t>②   時間単位30分。</t>
+  </si>
+  <si>
+    <t>③   休憩時間は顧客就業時間に準ずる。</t>
+  </si>
+  <si>
+    <t>④   請求書は毎月作業実績表（現場の承認印）を添付の上、翌月5日迄に送付する。</t>
+  </si>
+  <si>
+    <t>⑤   終了期日に変更が生じた場合は、別途協議する。</t>
+  </si>
+  <si>
     <t>業務委託料金</t>
-  </si>
-  <si>
-    <t>精算方式：変動基準時間方式とします。</t>
-  </si>
-  <si>
-    <t>作業報告書に基づく稼動実費精算とする。</t>
-  </si>
-  <si>
-    <t>作業場所</t>
-  </si>
-  <si>
-    <t>○○○</t>
-  </si>
-  <si>
-    <t>納入物件</t>
-  </si>
-  <si>
-    <t>月別作業報告書</t>
-  </si>
-  <si>
-    <t>支払条件</t>
-  </si>
-  <si>
-    <t>作業報告書査収による毎月末締め、翌々月末日に現金振込</t>
-  </si>
-  <si>
-    <r>
-      <t>①</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>途中入退場の場合は日割計算する。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>②</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>時間単位30分。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>③</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>休憩時間は顧客就業時間に準ずる。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>④</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>請求書は毎月作業実績表（現場の承認印）を添付の上、翌月5日迄に送付する。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>⑤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>終了期日に変更が生じた場合は、別途協議する。</t>
-    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>〈契約条項〉
+１．本作業に関わる著作権は、甲に一切帰属するものとする。
+２．乙は、本作業にて知り得た知識・企業秘密・ノウハウその他の情報（本作業自体を含め）、一切乙以外の外部に漏洩しないものとする。
+３．顧客の都合によりこの注文書の業務が中断もしくは終了した場合は、その時点で、当該注文は解除され発注の効力を失う。</t>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>注文番号：{$ORDER_NO$}</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -220,89 +106,86 @@
       </rPr>
       <t>御中</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>{$COMPANY_NAME$}</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>{$ADDRESS1$}</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>{$ADDRESS2$}</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>TEL:{$TEL$}　FAX:03-6809-3238</t>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>{$AUTHOR_FIRST_NAME$}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TEL:{$TEL$}　FAX:03-6809-3238</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>{$START_DATE$} ～ {$END_DATE$}</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>{$MASTER$}</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>{$SUBCONTRACTOR_MASTER$}</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>{$MIDDLEMAN$}</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>{$SUBCONTRACTOR_MIDDLEMAN$}</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>{$ITEM_NAME$}</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>月額基本料金：{$ITEM_COST$}円/月　　税金抜き</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>※基準時間：{$ITEM_MIN_HOUR$} 〜 {$ITEM_MAX_HOUR$}</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>超過単価：{$ITEM_PLUS_PER_HOUR$}</t>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>{$PUBLISH_DATE$}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{$MASTER$}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{$SUBCONTRACTOR_MASTER$}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{$SUBCONTRACTOR_MIDDLEMAN$}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>連絡窓口担当者（甲）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{$MIDDLEMAN$}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{$ITEM_NAME$}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月額基本料金：{$ITEM_COST$}円/月　　税金抜き</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※基準時間：{$ITEM_MIN_HOUR$} 〜 {$ITEM_MAX_HOUR$}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>超過単価：{$ITEM_PLUS_PER_HOUR$}</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>不足単価：{$ITEM_MINUS_PER_HOUR$}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>〈契約条項〉
-１．本作業に関わる著作権は、甲に一切帰属するものとする。
-２．乙は、本作業にて知り得た知識・企業秘密・ノウハウその他の情報（本作業自体を含め）、一切乙以外の外部に漏洩しないものとする。
-３．顧客の都合によりこの注文書の業務が中断もしくは終了した場合は、その時点で、当該注文は解除され発注の効力を失う。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{$START_DATE$} ～ {$END_DATE$}</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>精算方式：変動基準時間方式とします。</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>作業報告書に基づく稼動実費精算とする。</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,19 +196,11 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -335,7 +210,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <u/>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="ＭＳ 明朝"/>
@@ -343,23 +217,8 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.5"/>
-      <color rgb="FF222222"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
@@ -385,6 +244,21 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.5"/>
+      <color rgb="FF222222"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -577,93 +451,103 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -671,7 +555,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -967,30 +851,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="8" max="8" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="G1" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18">
-      <c r="G2" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="24">
-      <c r="D3" s="24" t="s">
+      <c r="G1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1">
+      <c r="G2" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24" customHeight="1">
+      <c r="D3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
@@ -999,51 +886,51 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18">
+    <row r="6" spans="1:7" ht="18" customHeight="1">
       <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1">
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1">
+      <c r="F8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18">
-      <c r="F7" s="1" t="s">
+    <row r="9" spans="1:7">
+      <c r="F9" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18">
-      <c r="F8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18">
+    <row r="10" spans="1:7" ht="18" customHeight="1">
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1">
+    <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="2"/>
       <c r="G11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18">
+    <row r="12" spans="1:7" ht="18" customHeight="1">
       <c r="A12" s="2"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="18">
-      <c r="G13" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18.95" thickBot="1">
+    <row r="13" spans="1:7" ht="18" customHeight="1">
+      <c r="G13" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.95" customHeight="1">
       <c r="A14" s="1"/>
       <c r="G14" s="4"/>
     </row>
@@ -1053,240 +940,238 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="39" customHeight="1">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" ht="27" customHeight="1">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21" t="s">
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="1:9" ht="27" customHeight="1">
+      <c r="A19" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="31"/>
+    </row>
+    <row r="20" spans="1:9" ht="21" customHeight="1">
+      <c r="A20" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" ht="21" customHeight="1">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" ht="21" customHeight="1">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="25"/>
-    </row>
-    <row r="19" spans="1:9" ht="27" customHeight="1">
-      <c r="A19" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="27"/>
-    </row>
-    <row r="20" spans="1:9" ht="21" customHeight="1">
-      <c r="A20" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="9" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" ht="21" customHeight="1">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" ht="21" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:9" ht="21" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="9" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" ht="21" customHeight="1">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" ht="21" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="9" t="s">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" ht="21" customHeight="1">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:9" ht="21" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="9" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:9" ht="21" customHeight="1">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="1:9" ht="21" customHeight="1">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="9" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" ht="21" customHeight="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="9" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A27" s="20" t="s">
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="16" t="s">
+      <c r="B28" s="25"/>
+      <c r="C28" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
-    </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A28" s="20" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="21"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="16" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="1:9" ht="21" customHeight="1">
-      <c r="A29" s="20" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="16" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17"/>
-    </row>
-    <row r="30" spans="1:9" ht="21" customHeight="1">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="18" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19"/>
-    </row>
-    <row r="31" spans="1:9" ht="21" customHeight="1">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="19"/>
-    </row>
-    <row r="32" spans="1:9" ht="21" customHeight="1">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="19"/>
-    </row>
-    <row r="33" spans="1:9" ht="21" customHeight="1">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="18" t="s">
-        <v>21</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -1295,93 +1180,78 @@
       <c r="H33" s="18"/>
       <c r="I33" s="19"/>
     </row>
-    <row r="34" spans="1:9" ht="21" customHeight="1" thickBot="1">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
+    <row r="34" spans="1:9">
+      <c r="A34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="22">
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
     <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
     <mergeCell ref="A20:B26"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
@@ -1394,17 +1264,20 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A35:I40"/>
-    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="A34:I39"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C28:I28"/>
     <mergeCell ref="C29:I29"/>
     <mergeCell ref="C30:I30"/>
     <mergeCell ref="C31:I31"/>
     <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="A29:B34"/>
+    <mergeCell ref="A28:B33"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="9" max="49" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>